--- a/Resource/excel/1102-属性重置.xlsx
+++ b/Resource/excel/1102-属性重置.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>#reset</t>
   </si>
@@ -123,7 +123,7 @@
     <t>Descripe(string)</t>
   </si>
   <si>
-    <t>NoteId(int)</t>
+    <t>Id(int)</t>
   </si>
   <si>
     <t>TimeType(int)</t>
@@ -148,6 +148,42 @@
   </si>
   <si>
     <t>Value(int)</t>
+  </si>
+  <si>
+    <t>每周1, 6点重置</t>
+  </si>
+  <si>
+    <t>7天签到的总天数</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>sevenday</t>
+  </si>
+  <si>
+    <t>7天签到的奖励标识</t>
+  </si>
+  <si>
+    <t>sevenreward</t>
+  </si>
+  <si>
+    <t>每周限购商品</t>
+  </si>
+  <si>
+    <t>weeklystore</t>
+  </si>
+  <si>
+    <t>每天 6点重置</t>
+  </si>
+  <si>
+    <t>7天签到的每日签到</t>
+  </si>
+  <si>
+    <t>每日限购商品</t>
+  </si>
+  <si>
+    <t>dailystore</t>
   </si>
 </sst>
 </file>
@@ -155,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -180,6 +216,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -188,44 +285,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,95 +345,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +378,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,187 +405,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +626,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,26 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,17 +695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,8 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,166 +723,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,10 +886,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1267,35 +1333,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD9"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="5" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="7" customWidth="1"/>
+    <col min="12" max="13" width="17.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="16" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1407,99 +1473,263 @@
       <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:2">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:11">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:2">
+    <row r="11" s="6" customFormat="1" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" s="4" customFormat="1" spans="1:2">
+    <row r="12" s="6" customFormat="1" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:2">
+    <row r="13" s="6" customFormat="1" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:2">
+    <row r="14" s="6" customFormat="1" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" s="4" customFormat="1" spans="1:2">
+    <row r="15" s="6" customFormat="1" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:2">
+    <row r="16" s="6" customFormat="1" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:2">
+    <row r="17" s="6" customFormat="1" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:2">
+    <row r="18" s="6" customFormat="1" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:2">
+    <row r="19" s="6" customFormat="1" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:2">
+    <row r="20" s="6" customFormat="1" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6"/>
+    <row r="21" s="6" customFormat="1" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
